--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2683.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2683.xlsx
@@ -354,7 +354,7 @@
         <v>2.419978600312579</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.331274488061352</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2683.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2683.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.161579034896433</v>
+        <v>0.847390353679657</v>
       </c>
       <c r="B1">
-        <v>2.419978600312579</v>
+        <v>1.159092307090759</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>1.952577590942383</v>
       </c>
       <c r="D1">
-        <v>2.331274488061352</v>
+        <v>4.705146312713623</v>
       </c>
       <c r="E1">
-        <v>1.214412613136008</v>
+        <v>2.232603549957275</v>
       </c>
     </row>
   </sheetData>
